--- a/data/pca/factorExposure/factorExposure_2016-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01842081179928473</v>
+        <v>0.01846273475162629</v>
       </c>
       <c r="C2">
-        <v>-0.04164400106300273</v>
+        <v>0.03954933805261325</v>
       </c>
       <c r="D2">
-        <v>0.09855731754482772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1195966032745487</v>
+      </c>
+      <c r="E2">
+        <v>0.08379079948838024</v>
+      </c>
+      <c r="F2">
+        <v>-0.005317898709002157</v>
+      </c>
+      <c r="G2">
+        <v>-0.02430740818626401</v>
+      </c>
+      <c r="H2">
+        <v>-0.1011525069011735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01905493962208281</v>
+        <v>0.01120599531826268</v>
       </c>
       <c r="C3">
-        <v>-0.06317035252527776</v>
+        <v>0.03576633156106758</v>
       </c>
       <c r="D3">
-        <v>0.1522555041526899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0803474294532065</v>
+      </c>
+      <c r="E3">
+        <v>0.08770920744312631</v>
+      </c>
+      <c r="F3">
+        <v>-0.03751552399671464</v>
+      </c>
+      <c r="G3">
+        <v>-0.09319596295918731</v>
+      </c>
+      <c r="H3">
+        <v>-0.04532501775445046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05069050540279278</v>
+        <v>0.05528616583519317</v>
       </c>
       <c r="C4">
-        <v>-0.04331463696752954</v>
+        <v>0.06522518853016658</v>
       </c>
       <c r="D4">
-        <v>0.128484437367146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.135239696883472</v>
+      </c>
+      <c r="E4">
+        <v>0.05755095690613186</v>
+      </c>
+      <c r="F4">
+        <v>-0.01952373947692006</v>
+      </c>
+      <c r="G4">
+        <v>0.02200772425503295</v>
+      </c>
+      <c r="H4">
+        <v>0.04216215400306932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04383465409631392</v>
+        <v>0.04106515340621796</v>
       </c>
       <c r="C6">
-        <v>-0.0157224061215261</v>
+        <v>0.02691771213051801</v>
       </c>
       <c r="D6">
-        <v>0.1255275479319686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1261664607476886</v>
+      </c>
+      <c r="E6">
+        <v>0.04444482990018284</v>
+      </c>
+      <c r="F6">
+        <v>-0.01339446628953306</v>
+      </c>
+      <c r="G6">
+        <v>-0.005143063701453778</v>
+      </c>
+      <c r="H6">
+        <v>-0.007877166961025979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02403549840714997</v>
+        <v>0.01794235546386722</v>
       </c>
       <c r="C7">
-        <v>-0.01947160715785588</v>
+        <v>0.03118875018143638</v>
       </c>
       <c r="D7">
-        <v>0.08816509187306808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09249878399718589</v>
+      </c>
+      <c r="E7">
+        <v>0.04572903312779631</v>
+      </c>
+      <c r="F7">
+        <v>-0.01305242236294652</v>
+      </c>
+      <c r="G7">
+        <v>0.0495467600808371</v>
+      </c>
+      <c r="H7">
+        <v>-0.08574240330748198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008446333103103037</v>
+        <v>0.008930870776604455</v>
       </c>
       <c r="C8">
-        <v>-0.03227874785486909</v>
+        <v>0.03576289660396421</v>
       </c>
       <c r="D8">
-        <v>0.06498200310146275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07286546335340828</v>
+      </c>
+      <c r="E8">
+        <v>0.04187375412086936</v>
+      </c>
+      <c r="F8">
+        <v>-0.03461978260671637</v>
+      </c>
+      <c r="G8">
+        <v>0.006030071642167022</v>
+      </c>
+      <c r="H8">
+        <v>-0.02858561604713201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03770407825078077</v>
+        <v>0.0406787023583032</v>
       </c>
       <c r="C9">
-        <v>-0.03836595538396968</v>
+        <v>0.05745343136100178</v>
       </c>
       <c r="D9">
-        <v>0.1071796818165179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1151162405922193</v>
+      </c>
+      <c r="E9">
+        <v>0.04772695126208219</v>
+      </c>
+      <c r="F9">
+        <v>-0.001392531156315197</v>
+      </c>
+      <c r="G9">
+        <v>0.0281649779231251</v>
+      </c>
+      <c r="H9">
+        <v>0.0009978776391215262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09082087638109734</v>
+        <v>0.1266673281147612</v>
       </c>
       <c r="C10">
-        <v>0.1960774011223899</v>
+        <v>-0.1952780739155724</v>
       </c>
       <c r="D10">
-        <v>0.003042874527887507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002187854571111369</v>
+      </c>
+      <c r="E10">
+        <v>0.05611158813183444</v>
+      </c>
+      <c r="F10">
+        <v>-0.01244992179176562</v>
+      </c>
+      <c r="G10">
+        <v>0.0340600065007642</v>
+      </c>
+      <c r="H10">
+        <v>0.01654179280863425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03372419087995835</v>
+        <v>0.02863740375994905</v>
       </c>
       <c r="C11">
-        <v>-0.03885555526412302</v>
+        <v>0.04294884629641579</v>
       </c>
       <c r="D11">
-        <v>0.05893888966504086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05923372182105274</v>
+      </c>
+      <c r="E11">
+        <v>0.007688576353148594</v>
+      </c>
+      <c r="F11">
+        <v>-0.006370417662504944</v>
+      </c>
+      <c r="G11">
+        <v>0.02217054096608358</v>
+      </c>
+      <c r="H11">
+        <v>-0.04680421317663526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04019046008195184</v>
+        <v>0.03342438404305817</v>
       </c>
       <c r="C12">
-        <v>-0.03614557371152875</v>
+        <v>0.0425713452978789</v>
       </c>
       <c r="D12">
-        <v>0.05695415851456274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05624308205000517</v>
+      </c>
+      <c r="E12">
+        <v>0.01925540028356545</v>
+      </c>
+      <c r="F12">
+        <v>-0.0006545264005962727</v>
+      </c>
+      <c r="G12">
+        <v>0.02457140827406668</v>
+      </c>
+      <c r="H12">
+        <v>-0.05369128448432448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01237182565729237</v>
+        <v>0.01922102478982918</v>
       </c>
       <c r="C13">
-        <v>-0.03426309341500937</v>
+        <v>0.03973363642420349</v>
       </c>
       <c r="D13">
-        <v>0.1305454314855253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1411176709639775</v>
+      </c>
+      <c r="E13">
+        <v>0.08226263588758066</v>
+      </c>
+      <c r="F13">
+        <v>-0.02351881449784058</v>
+      </c>
+      <c r="G13">
+        <v>0.03423215528167029</v>
+      </c>
+      <c r="H13">
+        <v>-0.08117616606255951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01200644252887006</v>
+        <v>0.007405689839894945</v>
       </c>
       <c r="C14">
-        <v>-0.01277676303859925</v>
+        <v>0.02215882203722922</v>
       </c>
       <c r="D14">
-        <v>0.07917039362102687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08366118839757967</v>
+      </c>
+      <c r="E14">
+        <v>0.04494278893927978</v>
+      </c>
+      <c r="F14">
+        <v>0.01455248098417194</v>
+      </c>
+      <c r="G14">
+        <v>0.03415050809674103</v>
+      </c>
+      <c r="H14">
+        <v>-0.08275345074157898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001643808619685247</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.008092071828823226</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02670829113096057</v>
+      </c>
+      <c r="E15">
+        <v>0.006370905215199466</v>
+      </c>
+      <c r="F15">
+        <v>0.003011223293327801</v>
+      </c>
+      <c r="G15">
+        <v>-0.001609069578230722</v>
+      </c>
+      <c r="H15">
+        <v>-0.01248595032744784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03537954913538875</v>
+        <v>0.02985462682644638</v>
       </c>
       <c r="C16">
-        <v>-0.04300163262032652</v>
+        <v>0.04406406172136644</v>
       </c>
       <c r="D16">
-        <v>0.06520764877619449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06104627921935248</v>
+      </c>
+      <c r="E16">
+        <v>0.02137391690871737</v>
+      </c>
+      <c r="F16">
+        <v>0.007623349694665321</v>
+      </c>
+      <c r="G16">
+        <v>0.02092563023766428</v>
+      </c>
+      <c r="H16">
+        <v>-0.05282757195081995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01224550159285908</v>
+        <v>0.01115836192315247</v>
       </c>
       <c r="C19">
-        <v>-0.02347323328895897</v>
+        <v>0.02607766103379121</v>
       </c>
       <c r="D19">
-        <v>0.1754019488717791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1321701414331549</v>
+      </c>
+      <c r="E19">
+        <v>0.07389815502631886</v>
+      </c>
+      <c r="F19">
+        <v>0.0305711117425818</v>
+      </c>
+      <c r="G19">
+        <v>0.005165139603935078</v>
+      </c>
+      <c r="H19">
+        <v>-0.05355833337309293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01879891731696252</v>
+        <v>0.01594077908840459</v>
       </c>
       <c r="C20">
-        <v>-0.02682543221695472</v>
+        <v>0.03543904696887587</v>
       </c>
       <c r="D20">
-        <v>0.09323199789678709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09579131944356659</v>
+      </c>
+      <c r="E20">
+        <v>0.06462807184334776</v>
+      </c>
+      <c r="F20">
+        <v>0.007014614841560966</v>
+      </c>
+      <c r="G20">
+        <v>0.01970253597034987</v>
+      </c>
+      <c r="H20">
+        <v>-0.04449619685454047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009998483531378959</v>
+        <v>0.01424933451767713</v>
       </c>
       <c r="C21">
-        <v>-0.0180334549653161</v>
+        <v>0.03464479027740723</v>
       </c>
       <c r="D21">
-        <v>0.1258430862733657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1327363373312549</v>
+      </c>
+      <c r="E21">
+        <v>0.1019582942877768</v>
+      </c>
+      <c r="F21">
+        <v>0.01497486339512856</v>
+      </c>
+      <c r="G21">
+        <v>0.07652752844101292</v>
+      </c>
+      <c r="H21">
+        <v>-0.08142627866219601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0005749635384261851</v>
+        <v>0.005586323985196669</v>
       </c>
       <c r="C22">
-        <v>-0.0144513697959644</v>
+        <v>0.03655652539153038</v>
       </c>
       <c r="D22">
-        <v>0.05912534987539861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1198152210867717</v>
+      </c>
+      <c r="E22">
+        <v>0.03434375611466794</v>
+      </c>
+      <c r="F22">
+        <v>-0.07419519730485637</v>
+      </c>
+      <c r="G22">
+        <v>-0.05079972556780386</v>
+      </c>
+      <c r="H22">
+        <v>0.009592011064052197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0005262560436074895</v>
+        <v>0.005680379024120394</v>
       </c>
       <c r="C23">
-        <v>-0.01427495633901224</v>
+        <v>0.03697937574896008</v>
       </c>
       <c r="D23">
-        <v>0.05879204280969863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1192682140289903</v>
+      </c>
+      <c r="E23">
+        <v>0.03455680662869678</v>
+      </c>
+      <c r="F23">
+        <v>-0.07409385117584237</v>
+      </c>
+      <c r="G23">
+        <v>-0.05000807697784333</v>
+      </c>
+      <c r="H23">
+        <v>0.01014976021854496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03445138064063651</v>
+        <v>0.03147225052682492</v>
       </c>
       <c r="C24">
-        <v>-0.04550039691713114</v>
+        <v>0.0537643640409801</v>
       </c>
       <c r="D24">
-        <v>0.06569177980084093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0656430223316924</v>
+      </c>
+      <c r="E24">
+        <v>0.0262505561978358</v>
+      </c>
+      <c r="F24">
+        <v>0.004890602145798969</v>
+      </c>
+      <c r="G24">
+        <v>0.03558395835419704</v>
+      </c>
+      <c r="H24">
+        <v>-0.05932137095547972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04262287101851803</v>
+        <v>0.03681720110258238</v>
       </c>
       <c r="C25">
-        <v>-0.04591142113847839</v>
+        <v>0.0513683698614656</v>
       </c>
       <c r="D25">
-        <v>0.06696261865657017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06156497124013714</v>
+      </c>
+      <c r="E25">
+        <v>0.02459357192889527</v>
+      </c>
+      <c r="F25">
+        <v>-0.007727925296713799</v>
+      </c>
+      <c r="G25">
+        <v>0.03408163463098654</v>
+      </c>
+      <c r="H25">
+        <v>-0.04532036032478766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02157723312032666</v>
+        <v>0.02040232464959576</v>
       </c>
       <c r="C26">
-        <v>-0.006905057452050449</v>
+        <v>0.01723872510483322</v>
       </c>
       <c r="D26">
-        <v>0.05410500633634022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06396406567174029</v>
+      </c>
+      <c r="E26">
+        <v>0.03300751951264489</v>
+      </c>
+      <c r="F26">
+        <v>0.00426026584317179</v>
+      </c>
+      <c r="G26">
+        <v>0.01941568677642245</v>
+      </c>
+      <c r="H26">
+        <v>-0.05114696847893262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1260698835831279</v>
+        <v>0.178372648174855</v>
       </c>
       <c r="C28">
-        <v>0.2765522416072816</v>
+        <v>-0.2596681757513559</v>
       </c>
       <c r="D28">
-        <v>-0.03042887471147479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01423077964973964</v>
+      </c>
+      <c r="E28">
+        <v>0.07668214540928753</v>
+      </c>
+      <c r="F28">
+        <v>-0.002335179844714846</v>
+      </c>
+      <c r="G28">
+        <v>0.07882272289069872</v>
+      </c>
+      <c r="H28">
+        <v>0.01529853926278778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005242320201974105</v>
+        <v>0.006609911929102232</v>
       </c>
       <c r="C29">
-        <v>-0.01461626050018717</v>
+        <v>0.02034151773054809</v>
       </c>
       <c r="D29">
-        <v>0.06206185640712558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07730131875234607</v>
+      </c>
+      <c r="E29">
+        <v>0.04869629723422631</v>
+      </c>
+      <c r="F29">
+        <v>0.0004884013892862303</v>
+      </c>
+      <c r="G29">
+        <v>0.04820456051270192</v>
+      </c>
+      <c r="H29">
+        <v>-0.07700668879716009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04301875666542403</v>
+        <v>0.04422990647300573</v>
       </c>
       <c r="C30">
-        <v>-0.03372315009963842</v>
+        <v>0.0601755384149529</v>
       </c>
       <c r="D30">
-        <v>0.1538516862992984</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1733889364465293</v>
+      </c>
+      <c r="E30">
+        <v>0.03384016247647291</v>
+      </c>
+      <c r="F30">
+        <v>-0.0008105195272600831</v>
+      </c>
+      <c r="G30">
+        <v>-0.02504048852508528</v>
+      </c>
+      <c r="H30">
+        <v>-0.01679243885577088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06334330217301123</v>
+        <v>0.05717452244327752</v>
       </c>
       <c r="C31">
-        <v>-0.04908342720080246</v>
+        <v>0.0711168475129476</v>
       </c>
       <c r="D31">
-        <v>0.06483582336821769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05136568339155322</v>
+      </c>
+      <c r="E31">
+        <v>0.0477200815109823</v>
+      </c>
+      <c r="F31">
+        <v>-0.04073365388665518</v>
+      </c>
+      <c r="G31">
+        <v>0.02266735997034075</v>
+      </c>
+      <c r="H31">
+        <v>-0.02240310201306014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001554184048066907</v>
+        <v>0.0107621982000357</v>
       </c>
       <c r="C32">
-        <v>0.003335837850453242</v>
+        <v>0.01751339225809413</v>
       </c>
       <c r="D32">
-        <v>0.06535136944875938</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09141905710987032</v>
+      </c>
+      <c r="E32">
+        <v>0.0905951538198443</v>
+      </c>
+      <c r="F32">
+        <v>0.004014670640581423</v>
+      </c>
+      <c r="G32">
+        <v>0.07542244036069316</v>
+      </c>
+      <c r="H32">
+        <v>-0.0611864947801514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02635398163772102</v>
+        <v>0.02396444916496731</v>
       </c>
       <c r="C33">
-        <v>-0.02832308024309928</v>
+        <v>0.04330179266009085</v>
       </c>
       <c r="D33">
-        <v>0.1380476311676146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1325169486059429</v>
+      </c>
+      <c r="E33">
+        <v>0.05908113615258036</v>
+      </c>
+      <c r="F33">
+        <v>-0.01639816072309895</v>
+      </c>
+      <c r="G33">
+        <v>0.02751683981152958</v>
+      </c>
+      <c r="H33">
+        <v>-0.0552231631033041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03299363502283469</v>
+        <v>0.02959222502115286</v>
       </c>
       <c r="C34">
-        <v>-0.05435767767748362</v>
+        <v>0.05936668785398894</v>
       </c>
       <c r="D34">
-        <v>0.06119265243850155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05906174949604257</v>
+      </c>
+      <c r="E34">
+        <v>0.004821088419906519</v>
+      </c>
+      <c r="F34">
+        <v>0.003179159422470534</v>
+      </c>
+      <c r="G34">
+        <v>0.03543363545125362</v>
+      </c>
+      <c r="H34">
+        <v>-0.06260323066200589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0004934172217324353</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002810420501986236</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.002914654706086495</v>
+      </c>
+      <c r="E35">
+        <v>0.00049378860769238</v>
+      </c>
+      <c r="F35">
+        <v>-0.000169170430807369</v>
+      </c>
+      <c r="G35">
+        <v>0.001008664134692395</v>
+      </c>
+      <c r="H35">
+        <v>-0.002315294937219057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01812453765789139</v>
+        <v>0.01752623641447902</v>
       </c>
       <c r="C36">
-        <v>-0.002430948050126683</v>
+        <v>0.0153473501828201</v>
       </c>
       <c r="D36">
-        <v>0.07319493229008107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07635703406549285</v>
+      </c>
+      <c r="E36">
+        <v>0.04453051756408422</v>
+      </c>
+      <c r="F36">
+        <v>0.003488123410813465</v>
+      </c>
+      <c r="G36">
+        <v>0.0318746605377901</v>
+      </c>
+      <c r="H36">
+        <v>-0.04133169353936281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03094900025747918</v>
+        <v>0.02470290244300477</v>
       </c>
       <c r="C38">
-        <v>-0.0262047777386616</v>
+        <v>0.02588330043628172</v>
       </c>
       <c r="D38">
-        <v>0.06220488576682895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06171705048180226</v>
+      </c>
+      <c r="E38">
+        <v>0.03982101254505514</v>
+      </c>
+      <c r="F38">
+        <v>0.005148487838572204</v>
+      </c>
+      <c r="G38">
+        <v>-0.02796187299549434</v>
+      </c>
+      <c r="H38">
+        <v>-0.03660195884115994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04328873447983467</v>
+        <v>0.03836181776248703</v>
       </c>
       <c r="C39">
-        <v>-0.05508816401260761</v>
+        <v>0.06415524111122065</v>
       </c>
       <c r="D39">
-        <v>0.08429897840654203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1026725975813726</v>
+      </c>
+      <c r="E39">
+        <v>0.02431698962771283</v>
+      </c>
+      <c r="F39">
+        <v>0.02225758366538776</v>
+      </c>
+      <c r="G39">
+        <v>0.025667613304036</v>
+      </c>
+      <c r="H39">
+        <v>-0.07654486381566272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01669261079038036</v>
+        <v>0.01514317393561015</v>
       </c>
       <c r="C40">
-        <v>-0.04423924194186074</v>
+        <v>0.0375990713431294</v>
       </c>
       <c r="D40">
-        <v>0.0843939074338575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08401312887749667</v>
+      </c>
+      <c r="E40">
+        <v>0.08710342858489131</v>
+      </c>
+      <c r="F40">
+        <v>-0.05228457776999843</v>
+      </c>
+      <c r="G40">
+        <v>0.0149233674298848</v>
+      </c>
+      <c r="H40">
+        <v>-0.1525998065895287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02399165356995306</v>
+        <v>0.02215925246816555</v>
       </c>
       <c r="C41">
-        <v>0.003125384153720752</v>
+        <v>0.009547539033640386</v>
       </c>
       <c r="D41">
-        <v>0.07711366502246633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05828887976496569</v>
+      </c>
+      <c r="E41">
+        <v>0.0583655623812627</v>
+      </c>
+      <c r="F41">
+        <v>0.002261477586826859</v>
+      </c>
+      <c r="G41">
+        <v>0.01113823776382343</v>
+      </c>
+      <c r="H41">
+        <v>-0.0393454594660914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03414379148344607</v>
+        <v>0.02507918552528319</v>
       </c>
       <c r="C43">
-        <v>-0.007983988660025301</v>
+        <v>0.0194131109494177</v>
       </c>
       <c r="D43">
-        <v>0.115187955161798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08865121809687504</v>
+      </c>
+      <c r="E43">
+        <v>0.04645732320432985</v>
+      </c>
+      <c r="F43">
+        <v>-0.005191683612251819</v>
+      </c>
+      <c r="G43">
+        <v>0.01480800456790934</v>
+      </c>
+      <c r="H43">
+        <v>-0.05581827236981552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01292306415170355</v>
+        <v>0.01728951216068602</v>
       </c>
       <c r="C44">
-        <v>-0.04048567101845459</v>
+        <v>0.0422563334947175</v>
       </c>
       <c r="D44">
-        <v>0.08447587622327828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09622236690751343</v>
+      </c>
+      <c r="E44">
+        <v>0.08216651123171956</v>
+      </c>
+      <c r="F44">
+        <v>0.00568251471577608</v>
+      </c>
+      <c r="G44">
+        <v>0.03301269830367826</v>
+      </c>
+      <c r="H44">
+        <v>-0.0568796137422025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0202690008409953</v>
+        <v>0.01643156659761991</v>
       </c>
       <c r="C46">
-        <v>-0.01453160415669622</v>
+        <v>0.02834748003297998</v>
       </c>
       <c r="D46">
-        <v>0.07375448382676886</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08686265202527396</v>
+      </c>
+      <c r="E46">
+        <v>0.05316820133515349</v>
+      </c>
+      <c r="F46">
+        <v>0.02210347129627878</v>
+      </c>
+      <c r="G46">
+        <v>0.05699885354926211</v>
+      </c>
+      <c r="H46">
+        <v>-0.07944295231081247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09329883071258384</v>
+        <v>0.08816225960447849</v>
       </c>
       <c r="C47">
-        <v>-0.06780368319476773</v>
+        <v>0.08769998050960359</v>
       </c>
       <c r="D47">
-        <v>0.03980283639479452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02987524410226683</v>
+      </c>
+      <c r="E47">
+        <v>0.03839218925022975</v>
+      </c>
+      <c r="F47">
+        <v>-0.02344918519922523</v>
+      </c>
+      <c r="G47">
+        <v>0.05534216858425884</v>
+      </c>
+      <c r="H47">
+        <v>0.009686417097279423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02041277634783046</v>
+        <v>0.01899119761443718</v>
       </c>
       <c r="C48">
-        <v>-0.002872694577624166</v>
+        <v>0.01824000037456223</v>
       </c>
       <c r="D48">
-        <v>0.07230305829456762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07762861604184886</v>
+      </c>
+      <c r="E48">
+        <v>0.05764090639984193</v>
+      </c>
+      <c r="F48">
+        <v>0.01670493198191606</v>
+      </c>
+      <c r="G48">
+        <v>0.0288122365645129</v>
+      </c>
+      <c r="H48">
+        <v>-0.04224985260778218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07528540358545895</v>
+        <v>0.06311417698538445</v>
       </c>
       <c r="C50">
-        <v>-0.06250730225156556</v>
+        <v>0.06825922828115392</v>
       </c>
       <c r="D50">
-        <v>0.06749157846390537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05518403388147907</v>
+      </c>
+      <c r="E50">
+        <v>0.05041356451097777</v>
+      </c>
+      <c r="F50">
+        <v>-0.04150352761009534</v>
+      </c>
+      <c r="G50">
+        <v>0.006133894018255101</v>
+      </c>
+      <c r="H50">
+        <v>-0.0311574652099933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008440823025974511</v>
+        <v>0.008181031954037358</v>
       </c>
       <c r="C51">
-        <v>-0.01580604733395835</v>
+        <v>0.01598684702230033</v>
       </c>
       <c r="D51">
-        <v>0.08414312397294997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0893982675501323</v>
+      </c>
+      <c r="E51">
+        <v>0.03725042769929138</v>
+      </c>
+      <c r="F51">
+        <v>0.00550618895359003</v>
+      </c>
+      <c r="G51">
+        <v>0.0131717911985566</v>
+      </c>
+      <c r="H51">
+        <v>-0.07276019170326258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07667678598697943</v>
+        <v>0.08961252772029184</v>
       </c>
       <c r="C53">
-        <v>-0.08151639442359541</v>
+        <v>0.09581543819013801</v>
       </c>
       <c r="D53">
-        <v>0.01999959199214509</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0003799101756214012</v>
+      </c>
+      <c r="E53">
+        <v>0.09890448508628565</v>
+      </c>
+      <c r="F53">
+        <v>-0.02625653781932514</v>
+      </c>
+      <c r="G53">
+        <v>0.08272363503349654</v>
+      </c>
+      <c r="H53">
+        <v>0.05393968562408095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03417224456933614</v>
+        <v>0.02708553060796083</v>
       </c>
       <c r="C54">
-        <v>-0.02500370062350519</v>
+        <v>0.03364708998573188</v>
       </c>
       <c r="D54">
-        <v>0.08341183817933938</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08687032922245677</v>
+      </c>
+      <c r="E54">
+        <v>0.05221086355799798</v>
+      </c>
+      <c r="F54">
+        <v>0.02098090122348645</v>
+      </c>
+      <c r="G54">
+        <v>0.03100433401168388</v>
+      </c>
+      <c r="H54">
+        <v>-0.1004479455078684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08429369896264044</v>
+        <v>0.08676255191186408</v>
       </c>
       <c r="C55">
-        <v>-0.05994126917149706</v>
+        <v>0.07761145453795611</v>
       </c>
       <c r="D55">
-        <v>0.0007927495377738864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01515899040174999</v>
+      </c>
+      <c r="E55">
+        <v>0.0592920647622152</v>
+      </c>
+      <c r="F55">
+        <v>-0.02984697788714297</v>
+      </c>
+      <c r="G55">
+        <v>0.0349102778127548</v>
+      </c>
+      <c r="H55">
+        <v>0.0369967019798637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1366387478731991</v>
+        <v>0.1381322796829261</v>
       </c>
       <c r="C56">
-        <v>-0.09603596647079081</v>
+        <v>0.1204048610400484</v>
       </c>
       <c r="D56">
-        <v>0.01052288833601037</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0156660551542538</v>
+      </c>
+      <c r="E56">
+        <v>0.05470284534215082</v>
+      </c>
+      <c r="F56">
+        <v>-0.01706178961994261</v>
+      </c>
+      <c r="G56">
+        <v>0.0440675145398641</v>
+      </c>
+      <c r="H56">
+        <v>0.04104526707623301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.04052417184492152</v>
+        <v>0.03959811149892747</v>
       </c>
       <c r="C58">
-        <v>0.02438196984585883</v>
+        <v>0.019285986509024</v>
       </c>
       <c r="D58">
-        <v>0.4299082656144005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3793610027711773</v>
+      </c>
+      <c r="E58">
+        <v>0.2253498133888195</v>
+      </c>
+      <c r="F58">
+        <v>-0.1100469940502231</v>
+      </c>
+      <c r="G58">
+        <v>-0.4801169583244978</v>
+      </c>
+      <c r="H58">
+        <v>0.2749432436920995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1380576055133196</v>
+        <v>0.1661091188353879</v>
       </c>
       <c r="C59">
-        <v>0.2075347921065555</v>
+        <v>-0.1800887552488038</v>
       </c>
       <c r="D59">
-        <v>0.01733145482573044</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04399908673661134</v>
+      </c>
+      <c r="E59">
+        <v>0.0156107639346381</v>
+      </c>
+      <c r="F59">
+        <v>0.03633938629800181</v>
+      </c>
+      <c r="G59">
+        <v>-0.006274119561382404</v>
+      </c>
+      <c r="H59">
+        <v>0.01807009304945567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2625841256445471</v>
+        <v>0.237590566039336</v>
       </c>
       <c r="C60">
-        <v>-0.06986660316696902</v>
+        <v>0.09280993463253845</v>
       </c>
       <c r="D60">
-        <v>0.1301362046887083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1270985105038773</v>
+      </c>
+      <c r="E60">
+        <v>-0.3542136547501977</v>
+      </c>
+      <c r="F60">
+        <v>-0.09111824298126961</v>
+      </c>
+      <c r="G60">
+        <v>0.00910718841119214</v>
+      </c>
+      <c r="H60">
+        <v>0.0616007761586873</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04771212893235535</v>
+        <v>0.04196180741417438</v>
       </c>
       <c r="C61">
-        <v>-0.04940111548550735</v>
+        <v>0.05723074036396216</v>
       </c>
       <c r="D61">
-        <v>0.0983851275909545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09388109802950251</v>
+      </c>
+      <c r="E61">
+        <v>0.02296767498821643</v>
+      </c>
+      <c r="F61">
+        <v>0.01097760101241704</v>
+      </c>
+      <c r="G61">
+        <v>0.0413019439970697</v>
+      </c>
+      <c r="H61">
+        <v>-0.06586504991501062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01591057320393505</v>
+        <v>0.01568426147669901</v>
       </c>
       <c r="C63">
-        <v>-0.01886899066480127</v>
+        <v>0.02878626239868297</v>
       </c>
       <c r="D63">
-        <v>0.05689666744495534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06947382956967363</v>
+      </c>
+      <c r="E63">
+        <v>0.05329064927749309</v>
+      </c>
+      <c r="F63">
+        <v>-0.02192968269137025</v>
+      </c>
+      <c r="G63">
+        <v>0.008670509349509397</v>
+      </c>
+      <c r="H63">
+        <v>-0.03702418628579782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05492828836815243</v>
+        <v>0.05533304357120272</v>
       </c>
       <c r="C64">
-        <v>-0.0603113930750293</v>
+        <v>0.07502491644237556</v>
       </c>
       <c r="D64">
-        <v>0.06712377614107841</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05595077009683844</v>
+      </c>
+      <c r="E64">
+        <v>0.044474296432134</v>
+      </c>
+      <c r="F64">
+        <v>0.02136363542004127</v>
+      </c>
+      <c r="G64">
+        <v>0.06343272349448864</v>
+      </c>
+      <c r="H64">
+        <v>-0.02406883608288007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06320957487962277</v>
+        <v>0.05443545202296021</v>
       </c>
       <c r="C65">
-        <v>-0.007685539018660529</v>
+        <v>0.02347115373301204</v>
       </c>
       <c r="D65">
-        <v>0.1112443867350258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1153090468725392</v>
+      </c>
+      <c r="E65">
+        <v>0.01226537131429115</v>
+      </c>
+      <c r="F65">
+        <v>-0.01997683965230954</v>
+      </c>
+      <c r="G65">
+        <v>-0.04141002829966244</v>
+      </c>
+      <c r="H65">
+        <v>0.01897288152583318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04674206680640627</v>
+        <v>0.04533573688102895</v>
       </c>
       <c r="C66">
-        <v>-0.05482973575611148</v>
+        <v>0.07041467230235525</v>
       </c>
       <c r="D66">
-        <v>0.108962048019405</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1272605052141223</v>
+      </c>
+      <c r="E66">
+        <v>0.02512545738119052</v>
+      </c>
+      <c r="F66">
+        <v>0.01239035513622698</v>
+      </c>
+      <c r="G66">
+        <v>0.01355453443889996</v>
+      </c>
+      <c r="H66">
+        <v>-0.05648475536284224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.05016323523596506</v>
+        <v>0.04094033153340271</v>
       </c>
       <c r="C67">
-        <v>-0.03417910805029811</v>
+        <v>0.03188986146528978</v>
       </c>
       <c r="D67">
-        <v>0.03541505115604559</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02760090361010442</v>
+      </c>
+      <c r="E67">
+        <v>0.02262094246356352</v>
+      </c>
+      <c r="F67">
+        <v>-0.00209195644946841</v>
+      </c>
+      <c r="G67">
+        <v>-0.02370564117069762</v>
+      </c>
+      <c r="H67">
+        <v>-0.03542289714072099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.159051505762837</v>
+        <v>0.1837358039411934</v>
       </c>
       <c r="C68">
-        <v>0.2746022539716053</v>
+        <v>-0.2237526041052378</v>
       </c>
       <c r="D68">
-        <v>-0.02035841386890525</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01006713983200235</v>
+      </c>
+      <c r="E68">
+        <v>0.05608358237087457</v>
+      </c>
+      <c r="F68">
+        <v>-0.02315943949973567</v>
+      </c>
+      <c r="G68">
+        <v>0.004612138640317906</v>
+      </c>
+      <c r="H68">
+        <v>0.0004365502379750322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08778147090767262</v>
+        <v>0.08021420410294564</v>
       </c>
       <c r="C69">
-        <v>-0.07822576078865007</v>
+        <v>0.09696955761107806</v>
       </c>
       <c r="D69">
-        <v>0.05043337142795107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04310149312670129</v>
+      </c>
+      <c r="E69">
+        <v>0.03281841892946012</v>
+      </c>
+      <c r="F69">
+        <v>-0.001694668213404578</v>
+      </c>
+      <c r="G69">
+        <v>0.04761145127637387</v>
+      </c>
+      <c r="H69">
+        <v>-0.009168726560251757</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.132518300616088</v>
+        <v>0.1702785313338339</v>
       </c>
       <c r="C71">
-        <v>0.2517000190716952</v>
+        <v>-0.2287332330448355</v>
       </c>
       <c r="D71">
-        <v>0.02672814010889606</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03431919307772475</v>
+      </c>
+      <c r="E71">
+        <v>0.05353057093854158</v>
+      </c>
+      <c r="F71">
+        <v>-0.02103736333363887</v>
+      </c>
+      <c r="G71">
+        <v>0.04298307716406621</v>
+      </c>
+      <c r="H71">
+        <v>-0.007736367092611266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09698884674186863</v>
+        <v>0.1008827147392706</v>
       </c>
       <c r="C72">
-        <v>-0.04867080117852813</v>
+        <v>0.06334806909971311</v>
       </c>
       <c r="D72">
-        <v>0.08457400326831703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09169946028878204</v>
+      </c>
+      <c r="E72">
+        <v>-0.01407728266447094</v>
+      </c>
+      <c r="F72">
+        <v>-0.03163168245764784</v>
+      </c>
+      <c r="G72">
+        <v>0.04537289636299751</v>
+      </c>
+      <c r="H72">
+        <v>-0.02035536524636599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3131780032103711</v>
+        <v>0.2735482635721453</v>
       </c>
       <c r="C73">
-        <v>-0.02666979862350648</v>
+        <v>0.07452065017384255</v>
       </c>
       <c r="D73">
-        <v>0.2086229389070496</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.205854638369187</v>
+      </c>
+      <c r="E73">
+        <v>-0.6682197834855896</v>
+      </c>
+      <c r="F73">
+        <v>-0.1060342810893192</v>
+      </c>
+      <c r="G73">
+        <v>-0.06982490345376191</v>
+      </c>
+      <c r="H73">
+        <v>0.08618792829771363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1053678371869514</v>
+        <v>0.1054709901669113</v>
       </c>
       <c r="C74">
-        <v>-0.06837616708481478</v>
+        <v>0.08834073880648442</v>
       </c>
       <c r="D74">
-        <v>0.03545746506963202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.004253959954901318</v>
+      </c>
+      <c r="E74">
+        <v>0.07947162893361084</v>
+      </c>
+      <c r="F74">
+        <v>-0.04284979030090367</v>
+      </c>
+      <c r="G74">
+        <v>0.03567941772084456</v>
+      </c>
+      <c r="H74">
+        <v>0.07738817090259077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2501998626446815</v>
+        <v>0.2440764913194859</v>
       </c>
       <c r="C75">
-        <v>-0.1269344088285647</v>
+        <v>0.156453931959353</v>
       </c>
       <c r="D75">
-        <v>-0.06040930069767602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1164846389255243</v>
+      </c>
+      <c r="E75">
+        <v>0.0721527727745493</v>
+      </c>
+      <c r="F75">
+        <v>0.01938287514078062</v>
+      </c>
+      <c r="G75">
+        <v>0.02373177855792071</v>
+      </c>
+      <c r="H75">
+        <v>0.1620142631793554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1206793780512345</v>
+        <v>0.1266258772635754</v>
       </c>
       <c r="C76">
-        <v>-0.08292287817586708</v>
+        <v>0.1056545983805695</v>
       </c>
       <c r="D76">
-        <v>0.001488621178815457</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02452608871172697</v>
+      </c>
+      <c r="E76">
+        <v>0.118698255854014</v>
+      </c>
+      <c r="F76">
+        <v>-0.009682541341058663</v>
+      </c>
+      <c r="G76">
+        <v>0.05444053640088153</v>
+      </c>
+      <c r="H76">
+        <v>0.03999429852103261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08016999394036653</v>
+        <v>0.06806107709110597</v>
       </c>
       <c r="C77">
-        <v>-0.01857808892807361</v>
+        <v>0.06932617264731965</v>
       </c>
       <c r="D77">
-        <v>0.1137920179197668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1233385608560159</v>
+      </c>
+      <c r="E77">
+        <v>0.103451156846839</v>
+      </c>
+      <c r="F77">
+        <v>0.2960680569706796</v>
+      </c>
+      <c r="G77">
+        <v>-0.1680929796832372</v>
+      </c>
+      <c r="H77">
+        <v>0.1013090552249252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03919998263853795</v>
+        <v>0.04135177443016012</v>
       </c>
       <c r="C78">
-        <v>-0.04591807801130987</v>
+        <v>0.06108444692166359</v>
       </c>
       <c r="D78">
-        <v>0.1097942968799722</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1238858159307929</v>
+      </c>
+      <c r="E78">
+        <v>0.03400469137627527</v>
+      </c>
+      <c r="F78">
+        <v>-0.01652249295088718</v>
+      </c>
+      <c r="G78">
+        <v>0.04423904874390995</v>
+      </c>
+      <c r="H78">
+        <v>-0.02896973072189732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002311632440959488</v>
+        <v>0.04071743340658909</v>
       </c>
       <c r="C79">
-        <v>0.002905756027456164</v>
+        <v>0.07706106981597841</v>
       </c>
       <c r="D79">
-        <v>0.01869512153631896</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04271979319375595</v>
+      </c>
+      <c r="E79">
+        <v>0.1609668943598002</v>
+      </c>
+      <c r="F79">
+        <v>-0.07601525360046925</v>
+      </c>
+      <c r="G79">
+        <v>0.3975391167364373</v>
+      </c>
+      <c r="H79">
+        <v>0.6676890484440742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03215788057714253</v>
+        <v>0.02673458198243516</v>
       </c>
       <c r="C80">
-        <v>-0.02586535070759566</v>
+        <v>0.04054608804579198</v>
       </c>
       <c r="D80">
-        <v>0.03419286958369164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03733419460671566</v>
+      </c>
+      <c r="E80">
+        <v>0.01319331543091869</v>
+      </c>
+      <c r="F80">
+        <v>0.03705894701701807</v>
+      </c>
+      <c r="G80">
+        <v>-0.02659752333761187</v>
+      </c>
+      <c r="H80">
+        <v>-0.04470159611662838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.146080300002558</v>
+        <v>0.133992736368115</v>
       </c>
       <c r="C81">
-        <v>-0.08596080375576098</v>
+        <v>0.111010232252832</v>
       </c>
       <c r="D81">
-        <v>-0.03360413596787505</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07572696486569694</v>
+      </c>
+      <c r="E81">
+        <v>0.1104322778214129</v>
+      </c>
+      <c r="F81">
+        <v>-0.0002712878509047631</v>
+      </c>
+      <c r="G81">
+        <v>0.03526444763845116</v>
+      </c>
+      <c r="H81">
+        <v>0.06351919618776539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2780949145539268</v>
+        <v>0.2482857312930201</v>
       </c>
       <c r="C82">
-        <v>-0.2378741036190684</v>
+        <v>0.2289457500956518</v>
       </c>
       <c r="D82">
-        <v>-0.2221320423959632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2292299036051064</v>
+      </c>
+      <c r="E82">
+        <v>0.01015574352286233</v>
+      </c>
+      <c r="F82">
+        <v>-0.04049552244551105</v>
+      </c>
+      <c r="G82">
+        <v>0.3725757175060757</v>
+      </c>
+      <c r="H82">
+        <v>-0.4108847663190939</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04075929521724772</v>
+        <v>0.02598363053176848</v>
       </c>
       <c r="C83">
-        <v>-0.037639512654063</v>
+        <v>0.05293021951231731</v>
       </c>
       <c r="D83">
-        <v>0.07217783491594391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05334345833941807</v>
+      </c>
+      <c r="E83">
+        <v>0.005838440758524455</v>
+      </c>
+      <c r="F83">
+        <v>0.02045399272211158</v>
+      </c>
+      <c r="G83">
+        <v>2.749954212140787e-05</v>
+      </c>
+      <c r="H83">
+        <v>-0.03025941632629498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004058509737422864</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00403895790645898</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.00931374233915978</v>
+      </c>
+      <c r="E84">
+        <v>0.01091878006340608</v>
+      </c>
+      <c r="F84">
+        <v>-0.003506375664697715</v>
+      </c>
+      <c r="G84">
+        <v>-0.005623899696455455</v>
+      </c>
+      <c r="H84">
+        <v>-0.005599999450864682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1826352690734143</v>
+        <v>0.1663872368105513</v>
       </c>
       <c r="C85">
-        <v>-0.1019640357942377</v>
+        <v>0.1250966084046501</v>
       </c>
       <c r="D85">
-        <v>-0.05462439268185275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08679111437183296</v>
+      </c>
+      <c r="E85">
+        <v>0.03509656814949939</v>
+      </c>
+      <c r="F85">
+        <v>-0.03532174473604198</v>
+      </c>
+      <c r="G85">
+        <v>0.05956458475120442</v>
+      </c>
+      <c r="H85">
+        <v>0.149419181960929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01459156188832258</v>
+        <v>0.01997179078535848</v>
       </c>
       <c r="C86">
-        <v>-0.02012756158833932</v>
+        <v>0.01694112318031694</v>
       </c>
       <c r="D86">
-        <v>0.1360821631243127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1199759914630304</v>
+      </c>
+      <c r="E86">
+        <v>0.02259924542927601</v>
+      </c>
+      <c r="F86">
+        <v>0.008125940122200503</v>
+      </c>
+      <c r="G86">
+        <v>0.04044681785847286</v>
+      </c>
+      <c r="H86">
+        <v>-0.06447470225293911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02842443989794649</v>
+        <v>0.03252672960985199</v>
       </c>
       <c r="C87">
-        <v>0.001693097086563026</v>
+        <v>0.02292279979194416</v>
       </c>
       <c r="D87">
-        <v>0.09653388155996311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1251269677562387</v>
+      </c>
+      <c r="E87">
+        <v>0.0913817940994358</v>
+      </c>
+      <c r="F87">
+        <v>0.02407664345561292</v>
+      </c>
+      <c r="G87">
+        <v>0.004797222098493189</v>
+      </c>
+      <c r="H87">
+        <v>-0.02900492464301415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08318943523594027</v>
+        <v>0.07396058867961565</v>
       </c>
       <c r="C88">
-        <v>-0.05960654683461578</v>
+        <v>0.0634439269129715</v>
       </c>
       <c r="D88">
-        <v>0.04955611285372809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02784915892685666</v>
+      </c>
+      <c r="E88">
+        <v>0.03780478883766245</v>
+      </c>
+      <c r="F88">
+        <v>-0.0007068086539397779</v>
+      </c>
+      <c r="G88">
+        <v>0.002086460207532741</v>
+      </c>
+      <c r="H88">
+        <v>-0.01515461982064982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2028768365951482</v>
+        <v>0.2544270642782751</v>
       </c>
       <c r="C89">
-        <v>0.3615123573209502</v>
+        <v>-0.3511208871250596</v>
       </c>
       <c r="D89">
-        <v>-0.03562722224347832</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0005826963556912428</v>
+      </c>
+      <c r="E89">
+        <v>0.07443740083900773</v>
+      </c>
+      <c r="F89">
+        <v>0.04288784052605984</v>
+      </c>
+      <c r="G89">
+        <v>0.04431194664370706</v>
+      </c>
+      <c r="H89">
+        <v>-0.03656474367940384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1921948870974154</v>
+        <v>0.2270534993514103</v>
       </c>
       <c r="C90">
-        <v>0.2965954791680547</v>
+        <v>-0.2722005660382812</v>
       </c>
       <c r="D90">
-        <v>-0.0332690821972091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01155723479244622</v>
+      </c>
+      <c r="E90">
+        <v>0.0559098699326687</v>
+      </c>
+      <c r="F90">
+        <v>-0.002020027759192125</v>
+      </c>
+      <c r="G90">
+        <v>-0.02349863114654701</v>
+      </c>
+      <c r="H90">
+        <v>-0.06359188216878237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1826718791986572</v>
+        <v>0.1729955754621183</v>
       </c>
       <c r="C91">
-        <v>-0.1459337166732964</v>
+        <v>0.160372931196194</v>
       </c>
       <c r="D91">
-        <v>-0.04841833754180914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08530072835893014</v>
+      </c>
+      <c r="E91">
+        <v>0.09486632027043893</v>
+      </c>
+      <c r="F91">
+        <v>-0.01634059178799247</v>
+      </c>
+      <c r="G91">
+        <v>0.03162260265488918</v>
+      </c>
+      <c r="H91">
+        <v>0.1554800142221592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1640716776438028</v>
+        <v>0.2055339532665121</v>
       </c>
       <c r="C92">
-        <v>0.3070772401678364</v>
+        <v>-0.2855552588975929</v>
       </c>
       <c r="D92">
-        <v>0.0004959798859893677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01042730661424119</v>
+      </c>
+      <c r="E92">
+        <v>0.06767148334082435</v>
+      </c>
+      <c r="F92">
+        <v>0.0411976147878842</v>
+      </c>
+      <c r="G92">
+        <v>-0.003700661590737028</v>
+      </c>
+      <c r="H92">
+        <v>-0.0171867166388536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2178396826072074</v>
+        <v>0.2498184100368183</v>
       </c>
       <c r="C93">
-        <v>0.3138862676634684</v>
+        <v>-0.2860895088136884</v>
       </c>
       <c r="D93">
-        <v>-0.02053754515091877</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.009952567410905206</v>
+      </c>
+      <c r="E93">
+        <v>0.02979813313398783</v>
+      </c>
+      <c r="F93">
+        <v>-0.03248109111560073</v>
+      </c>
+      <c r="G93">
+        <v>0.0138113493766921</v>
+      </c>
+      <c r="H93">
+        <v>-0.009505579246245869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3943631542882947</v>
+        <v>0.3440356219424896</v>
       </c>
       <c r="C94">
-        <v>-0.2369589752518564</v>
+        <v>0.2467397646473911</v>
       </c>
       <c r="D94">
-        <v>-0.4615601914257514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4388062371087138</v>
+      </c>
+      <c r="E94">
+        <v>0.1118323216335325</v>
+      </c>
+      <c r="F94">
+        <v>0.03748593298743165</v>
+      </c>
+      <c r="G94">
+        <v>-0.5715491370413667</v>
+      </c>
+      <c r="H94">
+        <v>-0.1127612009276503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09632724515104363</v>
+        <v>0.07490951918599875</v>
       </c>
       <c r="C95">
-        <v>0.009215239777065301</v>
+        <v>0.05137625649813132</v>
       </c>
       <c r="D95">
-        <v>0.05486260693167623</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08505100866523858</v>
+      </c>
+      <c r="E95">
+        <v>-0.116391972592092</v>
+      </c>
+      <c r="F95">
+        <v>0.9055520658530762</v>
+      </c>
+      <c r="G95">
+        <v>0.06160633571249913</v>
+      </c>
+      <c r="H95">
+        <v>0.07641669518749224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1761672495797391</v>
+        <v>0.1704158624681965</v>
       </c>
       <c r="C98">
-        <v>-0.0260071231281509</v>
+        <v>0.05341171109523295</v>
       </c>
       <c r="D98">
-        <v>0.1285276820157471</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1371953080225025</v>
+      </c>
+      <c r="E98">
+        <v>-0.2851651441557861</v>
+      </c>
+      <c r="F98">
+        <v>-0.08925790094852698</v>
+      </c>
+      <c r="G98">
+        <v>0.01968854830195221</v>
+      </c>
+      <c r="H98">
+        <v>0.02190306951095858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005098844470462088</v>
+        <v>0.006772009553236654</v>
       </c>
       <c r="C101">
-        <v>-0.01390826312961963</v>
+        <v>0.01940102073158649</v>
       </c>
       <c r="D101">
-        <v>0.06176996165696328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07722863205311577</v>
+      </c>
+      <c r="E101">
+        <v>0.04966114718174525</v>
+      </c>
+      <c r="F101">
+        <v>0.001473466998479676</v>
+      </c>
+      <c r="G101">
+        <v>0.04873678004548777</v>
+      </c>
+      <c r="H101">
+        <v>-0.07678185319429841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1286403020413967</v>
+        <v>0.1169826272100164</v>
       </c>
       <c r="C102">
-        <v>-0.1025296326733117</v>
+        <v>0.1171525320556435</v>
       </c>
       <c r="D102">
-        <v>-0.03102517946366031</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05097627350712892</v>
+      </c>
+      <c r="E102">
+        <v>0.02755576985885039</v>
+      </c>
+      <c r="F102">
+        <v>0.02095073479417557</v>
+      </c>
+      <c r="G102">
+        <v>0.04420105671946681</v>
+      </c>
+      <c r="H102">
+        <v>0.00832028456515033</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
